--- a/test/Procezor.OptimulaTest/test_import/Scm-ExportTabulkaPrac-202108.xlsx
+++ b/test/Procezor.OptimulaTest/test_import/Scm-ExportTabulkaPrac-202108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJ_HMGit\payrollcs\test\Procezor.OptimulaTest\test_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFCF55-B5CF-492E-B76F-E9FF5C83282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0489F48C-CC2A-4A9B-8E6C-300C517E235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="440" windowWidth="38220" windowHeight="12430" xr2:uid="{34BAA342-EF8F-44F1-9E82-A5C8155EFE41}"/>
+    <workbookView xWindow="8720" yWindow="220" windowWidth="38220" windowHeight="12430" xr2:uid="{8E9E8A5E-EE8F-4A7F-AB84-6CE34B3EE031}"/>
   </bookViews>
   <sheets>
     <sheet name="Pracovnici" sheetId="2" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6770F0E-14E1-402E-A8C6-8BE270D6C00E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E295DEA2-D5AF-419B-9DD7-0F4A41354C56}">
   <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6899,7 +6899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F75286D-FCF0-4EF9-9DAB-D2A76BD138EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC203BB9-6094-421D-A6DF-0E95003B3156}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
